--- a/biology/Médecine/Veine_cérébrale_supérieure/Veine_cérébrale_supérieure.xlsx
+++ b/biology/Médecine/Veine_cérébrale_supérieure/Veine_cérébrale_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_c%C3%A9r%C3%A9brale_sup%C3%A9rieure</t>
+          <t>Veine_cérébrale_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les veines cérébrales supérieures (ou veines superficielles ascendantes), au nombre de huit à douze, sont des veines superficielles de l'encéphale drainant les surfaces supérieures latérale et médiale des hémisphères.
 Elles se trouvent principalement dans les sillons entre les circonvolutions cérébrales, mais peuvent également être trouvés à travers celles-ci.
